--- a/2022-08-11-제조물량_요청사항표 (수정본).xlsx
+++ b/2022-08-11-제조물량_요청사항표 (수정본).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\agp\Yolov5_StrongSORT_OSNet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\agp\Deepsort_yolov5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176D3305-131C-4415-80AE-04F79AD5551C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D27BD9-305A-4ED1-86C4-326154B06DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="29040" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="제조 물량(새벽)" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,12 @@
     <sheet name="요청사항표-일반배송" sheetId="11" r:id="rId11"/>
     <sheet name="요청사항표-직접배송" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -5979,7 +5977,7 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.45"/>
@@ -6000,7 +5998,7 @@
         <v>27</v>
       </c>
       <c r="D1" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -6014,7 +6012,7 @@
         <v>377</v>
       </c>
       <c r="D2" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -6028,7 +6026,7 @@
         <v>428</v>
       </c>
       <c r="D3" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -6776,6 +6774,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:C1 A3:C3 B6:D28 A2:C2 B4:C4 B5:C5" numberStoredAsText="1"/>
   </ignoredErrors>
